--- a/Criptomoedas_Coinbase.xlsx
+++ b/Criptomoedas_Coinbase.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="125">
   <si>
     <t>name</t>
   </si>
@@ -347,6 +347,48 @@
   </si>
   <si>
     <t>GRT</t>
+  </si>
+  <si>
+    <t>SushiSwap</t>
+  </si>
+  <si>
+    <t>SUSHI</t>
+  </si>
+  <si>
+    <t>Polygon</t>
+  </si>
+  <si>
+    <t>MATIC</t>
+  </si>
+  <si>
+    <t>SKALE Network</t>
+  </si>
+  <si>
+    <t>SKL</t>
+  </si>
+  <si>
+    <t>Cardano</t>
+  </si>
+  <si>
+    <t>ADA</t>
+  </si>
+  <si>
+    <t>Ankr</t>
+  </si>
+  <si>
+    <t>ANKR</t>
+  </si>
+  <si>
+    <t>Curve DAO Token</t>
+  </si>
+  <si>
+    <t>CRV</t>
+  </si>
+  <si>
+    <t>Storj</t>
+  </si>
+  <si>
+    <t>STORJ</t>
   </si>
 </sst>
 </file>
@@ -678,7 +720,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1958,6 +2000,188 @@
         <v>11</v>
       </c>
     </row>
+    <row r="50" spans="1:8">
+      <c r="A50" t="s">
+        <v>111</v>
+      </c>
+      <c r="B50" t="s">
+        <v>112</v>
+      </c>
+      <c r="C50" t="s">
+        <v>112</v>
+      </c>
+      <c r="D50" t="s">
+        <v>29</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50" t="s">
+        <v>11</v>
+      </c>
+      <c r="H50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" t="s">
+        <v>113</v>
+      </c>
+      <c r="B51" t="s">
+        <v>114</v>
+      </c>
+      <c r="C51" t="s">
+        <v>114</v>
+      </c>
+      <c r="D51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51" t="s">
+        <v>11</v>
+      </c>
+      <c r="H51" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" t="s">
+        <v>115</v>
+      </c>
+      <c r="B52" t="s">
+        <v>116</v>
+      </c>
+      <c r="C52" t="s">
+        <v>116</v>
+      </c>
+      <c r="D52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52" t="s">
+        <v>11</v>
+      </c>
+      <c r="H52" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" t="s">
+        <v>117</v>
+      </c>
+      <c r="B53" t="s">
+        <v>118</v>
+      </c>
+      <c r="C53" t="s">
+        <v>118</v>
+      </c>
+      <c r="D53" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53" t="s">
+        <v>11</v>
+      </c>
+      <c r="H53" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" t="s">
+        <v>119</v>
+      </c>
+      <c r="B54" t="s">
+        <v>120</v>
+      </c>
+      <c r="C54" t="s">
+        <v>120</v>
+      </c>
+      <c r="D54" t="s">
+        <v>100</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54" t="s">
+        <v>11</v>
+      </c>
+      <c r="H54" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" t="s">
+        <v>121</v>
+      </c>
+      <c r="B55" t="s">
+        <v>122</v>
+      </c>
+      <c r="C55" t="s">
+        <v>122</v>
+      </c>
+      <c r="D55" t="s">
+        <v>29</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H55" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" t="s">
+        <v>123</v>
+      </c>
+      <c r="B56" t="s">
+        <v>124</v>
+      </c>
+      <c r="C56" t="s">
+        <v>124</v>
+      </c>
+      <c r="D56" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56" t="s">
+        <v>11</v>
+      </c>
+      <c r="H56" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
